--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.183459194230011</v>
+        <v>10.183459162421514</v>
       </c>
       <c r="C2">
-        <v>24.392056879469806</v>
+        <v>24.392056863506298</v>
       </c>
       <c r="D2">
-        <v>2.1019864475476879</v>
+        <v>2.1019864147396845</v>
       </c>
       <c r="E2">
-        <v>25.713370180127441</v>
+        <v>25.71337014726376</v>
       </c>
       <c r="F2">
-        <v>-16.582318993971029</v>
+        <v>-16.582319013432965</v>
       </c>
       <c r="G2">
-        <v>21.744669396683577</v>
+        <v>21.744669375027485</v>
       </c>
       <c r="H2">
-        <v>21.817489412713826</v>
+        <v>21.817489392755988</v>
       </c>
       <c r="I2">
-        <v>19.136826754883657</v>
+        <v>19.136826730162397</v>
       </c>
       <c r="J2">
-        <v>24.901926426521072</v>
+        <v>24.90192640902643</v>
       </c>
       <c r="K2">
-        <v>37.710520497838274</v>
+        <v>37.710520480077093</v>
       </c>
       <c r="L2">
-        <v>27.118870946750235</v>
+        <v>27.118870922523001</v>
       </c>
       <c r="M2">
-        <v>22.201808162720226</v>
+        <v>22.201808117457745</v>
       </c>
       <c r="N2">
-        <v>29.757018943388175</v>
+        <v>29.757018903246944</v>
       </c>
       <c r="O2">
-        <v>8.413600489364967</v>
+        <v>8.4136004632082404</v>
       </c>
       <c r="P2">
-        <v>17.834756351941849</v>
+        <v>17.834756307673899</v>
       </c>
       <c r="Q2">
-        <v>36.131272461897709</v>
+        <v>36.13127242832195</v>
       </c>
       <c r="R2">
-        <v>18.795768556146413</v>
+        <v>18.795768526116319</v>
       </c>
       <c r="S2">
-        <v>19.694373146335181</v>
+        <v>19.694373160860607</v>
       </c>
       <c r="T2">
-        <v>36.065684060961473</v>
+        <v>36.065684009801885</v>
       </c>
       <c r="U2">
-        <v>31.20102647805308</v>
+        <v>31.201026457748839</v>
       </c>
       <c r="V2">
-        <v>30.44478401417507</v>
+        <v>30.44478399454249</v>
       </c>
       <c r="W2">
-        <v>3.8496130160795019</v>
+        <v>3.849612992580262</v>
       </c>
       <c r="X2">
-        <v>30.78267462277347</v>
+        <v>30.782674581090873</v>
       </c>
       <c r="Y2">
-        <v>29.295463880091432</v>
+        <v>29.295463849539686</v>
       </c>
       <c r="Z2">
-        <v>26.39595397656629</v>
+        <v>26.395953953891791</v>
       </c>
       <c r="AA2">
-        <v>25.227700827846604</v>
+        <v>25.227700796796853</v>
       </c>
       <c r="AB2">
-        <v>26.818828738443358</v>
+        <v>26.818828704167004</v>
       </c>
       <c r="AC2">
-        <v>18.439395396994797</v>
+        <v>18.439395377410364</v>
       </c>
       <c r="AD2">
-        <v>24.585830020029448</v>
+        <v>24.585829987216869</v>
       </c>
       <c r="AE2">
-        <v>36.021278845786696</v>
+        <v>36.02127883165582</v>
       </c>
       <c r="AF2">
-        <v>28.186938152863092</v>
+        <v>28.186938121740695</v>
       </c>
       <c r="AG2">
-        <v>21.406733361454599</v>
+        <v>21.406733336396428</v>
       </c>
       <c r="AH2">
-        <v>22.96163859688869</v>
+        <v>22.961638553814453</v>
       </c>
       <c r="AI2">
-        <v>1.2011529665697367</v>
+        <v>1.2011529343764096</v>
       </c>
       <c r="AJ2">
-        <v>19.169091149261135</v>
+        <v>19.169091127450997</v>
       </c>
       <c r="AK2">
-        <v>25.050991969717415</v>
+        <v>25.05099194630543</v>
       </c>
       <c r="AL2">
-        <v>39.749451995450841</v>
+        <v>39.749451966922379</v>
       </c>
       <c r="AM2">
-        <v>23.758279599348413</v>
+        <v>23.758279565178924</v>
       </c>
       <c r="AN2">
-        <v>23.730591963029781</v>
+        <v>23.730591934933045</v>
       </c>
       <c r="AO2">
-        <v>33.747114639628279</v>
+        <v>33.747114595662055</v>
       </c>
       <c r="AP2">
-        <v>25.771727241845952</v>
+        <v>25.771727216370664</v>
       </c>
       <c r="AQ2">
-        <v>23.821750797127152</v>
+        <v>23.821750761293913</v>
       </c>
       <c r="AR2">
-        <v>30.116257810352465</v>
+        <v>30.11625779559364</v>
       </c>
       <c r="AS2">
-        <v>32.097275111166311</v>
+        <v>32.097275086991942</v>
       </c>
       <c r="AT2">
-        <v>30.389362507082126</v>
+        <v>30.389362473759491</v>
       </c>
       <c r="AU2">
-        <v>24.940094910298853</v>
+        <v>24.940094883945676</v>
       </c>
       <c r="AV2">
-        <v>13.889206093217922</v>
+        <v>13.889206064126256</v>
       </c>
       <c r="AW2">
-        <v>26.628338680290057</v>
+        <v>26.628338651684913</v>
       </c>
       <c r="AX2">
-        <v>31.189988484625559</v>
+        <v>31.189988455536877</v>
       </c>
       <c r="AY2">
-        <v>28.737864059932434</v>
+        <v>28.737864037135608</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.050106483717173</v>
+        <v>15.050106458750633</v>
       </c>
       <c r="C3">
-        <v>23.08396634662256</v>
+        <v>23.083966323984669</v>
       </c>
       <c r="D3">
-        <v>31.67231029333314</v>
+        <v>31.672310264028539</v>
       </c>
       <c r="E3">
-        <v>36.294304710179148</v>
+        <v>36.294304625127978</v>
       </c>
       <c r="F3">
-        <v>3.3125967198548381</v>
+        <v>3.3125967019877862</v>
       </c>
       <c r="G3">
-        <v>25.892177347184969</v>
+        <v>25.892177334519857</v>
       </c>
       <c r="H3">
-        <v>22.289493265380997</v>
+        <v>22.28949322460295</v>
       </c>
       <c r="I3">
-        <v>26.287771352488505</v>
+        <v>26.28777132944731</v>
       </c>
       <c r="J3">
-        <v>28.516190760327731</v>
+        <v>28.516190729945038</v>
       </c>
       <c r="K3">
-        <v>-0.36059832042894868</v>
+        <v>-0.36059833925833118</v>
       </c>
       <c r="L3">
-        <v>32.581352438202202</v>
+        <v>32.581352417148423</v>
       </c>
       <c r="M3">
-        <v>25.266600579646934</v>
+        <v>25.266858073763956</v>
       </c>
       <c r="N3">
-        <v>26.697035399598462</v>
+        <v>26.697035368234651</v>
       </c>
       <c r="O3">
-        <v>11.526169861367748</v>
+        <v>11.526169832176834</v>
       </c>
       <c r="P3">
-        <v>60.379807826967976</v>
+        <v>60.379807795312615</v>
       </c>
       <c r="Q3">
-        <v>22.164334642557321</v>
+        <v>22.164334605545605</v>
       </c>
       <c r="R3">
-        <v>14.318670095279344</v>
+        <v>14.318670040786117</v>
       </c>
       <c r="S3">
-        <v>15.652617522482956</v>
+        <v>15.652617499250255</v>
       </c>
       <c r="T3">
-        <v>18.186315464093582</v>
+        <v>18.186315442930777</v>
       </c>
       <c r="U3">
-        <v>29.03906225805099</v>
+        <v>29.03906223617463</v>
       </c>
       <c r="V3">
-        <v>34.424031887360343</v>
+        <v>34.424031864718927</v>
       </c>
       <c r="W3">
-        <v>18.235675474043092</v>
+        <v>18.235675434040957</v>
       </c>
       <c r="X3">
-        <v>11.008536709191162</v>
+        <v>11.008536681531041</v>
       </c>
       <c r="Y3">
-        <v>13.588769776179106</v>
+        <v>13.588769753537974</v>
       </c>
       <c r="Z3">
-        <v>26.783767179733843</v>
+        <v>26.783767149760649</v>
       </c>
       <c r="AA3">
-        <v>28.238802710951518</v>
+        <v>28.238802672905194</v>
       </c>
       <c r="AB3">
-        <v>22.692396191192188</v>
+        <v>22.692396176169382</v>
       </c>
       <c r="AC3">
-        <v>31.613299055439228</v>
+        <v>31.613299037434075</v>
       </c>
       <c r="AD3">
-        <v>35.549884098071402</v>
+        <v>35.549884075008805</v>
       </c>
       <c r="AE3">
-        <v>29.784818280804785</v>
+        <v>29.784818258226181</v>
       </c>
       <c r="AF3">
-        <v>29.571258128513989</v>
+        <v>29.571258104157664</v>
       </c>
       <c r="AG3">
-        <v>20.365303550805152</v>
+        <v>20.365303533603139</v>
       </c>
       <c r="AH3">
-        <v>27.815841125695613</v>
+        <v>27.815841092985409</v>
       </c>
       <c r="AI3">
-        <v>28.85264200230165</v>
+        <v>28.852641993491659</v>
       </c>
       <c r="AJ3">
-        <v>34.391077482422361</v>
+        <v>34.391077466304068</v>
       </c>
       <c r="AK3">
-        <v>29.457848780693496</v>
+        <v>29.457848758246939</v>
       </c>
       <c r="AL3">
-        <v>34.660294854333813</v>
+        <v>34.660294815133284</v>
       </c>
       <c r="AM3">
-        <v>21.488622295794585</v>
+        <v>21.488622267225253</v>
       </c>
       <c r="AN3">
-        <v>12.154029468635258</v>
+        <v>12.154029439443775</v>
       </c>
       <c r="AO3">
-        <v>11.489966044100356</v>
+        <v>11.489966016695007</v>
       </c>
       <c r="AP3">
-        <v>34.359168688218574</v>
+        <v>34.359168662104707</v>
       </c>
       <c r="AQ3">
-        <v>27.432934306250161</v>
+        <v>27.432934262466915</v>
       </c>
       <c r="AR3">
-        <v>36.964613583917867</v>
+        <v>36.964613562933835</v>
       </c>
       <c r="AS3">
-        <v>23.259462277420539</v>
+        <v>23.259462246252497</v>
       </c>
       <c r="AT3">
-        <v>22.790724540206071</v>
+        <v>22.790724509366811</v>
       </c>
       <c r="AU3">
-        <v>31.049270221014638</v>
+        <v>31.04927020316336</v>
       </c>
       <c r="AV3">
-        <v>24.770217126245711</v>
+        <v>24.770217099239403</v>
       </c>
       <c r="AW3">
-        <v>28.662243165309746</v>
+        <v>28.662243142414013</v>
       </c>
       <c r="AX3">
-        <v>59.491499239224083</v>
+        <v>59.491499214218265</v>
       </c>
       <c r="AY3">
-        <v>44.025351471086196</v>
+        <v>44.025351439727444</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>10.183459162421514</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>24.392056863506298</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.1019864147396845</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>25.71337014726376</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-16.582319013432965</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>21.744669375027485</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>21.817489392755988</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>19.136826730162397</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>24.90192640902643</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>37.710520480077093</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>27.118870922523001</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>22.201808117457745</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>29.757018903246944</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.4136004632082404</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>17.834756307673899</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>36.13127242832195</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>18.795768526116319</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>19.694373160860607</v>
+        <v>19.694339830860599</v>
       </c>
       <c r="T2">
-        <v>36.065684009801885</v>
+        <v>36.06565067980182</v>
       </c>
       <c r="U2">
-        <v>31.201026457748839</v>
+        <v>31.200993127748831</v>
       </c>
       <c r="V2">
-        <v>30.44478399454249</v>
+        <v>30.444750664542539</v>
       </c>
       <c r="W2">
-        <v>3.849612992580262</v>
+        <v>3.8495796625803109</v>
       </c>
       <c r="X2">
-        <v>30.782674581090873</v>
+        <v>30.782707911090881</v>
       </c>
       <c r="Y2">
-        <v>29.295463849539686</v>
+        <v>29.295497179539694</v>
       </c>
       <c r="Z2">
-        <v>26.395953953891791</v>
+        <v>26.395987283891799</v>
       </c>
       <c r="AA2">
-        <v>25.227700796796853</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>26.818828704167004</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>18.439395377410364</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>24.585829987216869</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>36.02127883165582</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>28.186938121740695</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>21.406733336396428</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>22.961638553814453</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.2011529343764096</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>19.169091127450997</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>25.05099194630543</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>39.749451966922379</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>23.758279565178924</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>23.730591934933045</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>33.747114595662055</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>25.771727216370664</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>23.821750761293913</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>30.11625779559364</v>
+        <v>30.116224465593632</v>
       </c>
       <c r="AS2">
-        <v>32.097275086991942</v>
+        <v>32.097241756991934</v>
       </c>
       <c r="AT2">
         <v>30.389362473759491</v>
       </c>
       <c r="AU2">
-        <v>24.940094883945676</v>
+        <v>24.940061553945668</v>
       </c>
       <c r="AV2">
         <v>13.889206064126256</v>
       </c>
       <c r="AW2">
-        <v>26.628338651684913</v>
+        <v>26.628371981684921</v>
       </c>
       <c r="AX2">
-        <v>31.189988455536877</v>
+        <v>31.190021785536857</v>
       </c>
       <c r="AY2">
         <v>28.737864037135608</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.050106458750633</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>23.083966323984669</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>31.672310264028539</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>36.294304625127978</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.3125967019877862</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>25.892177334519857</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>22.28949322460295</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>26.28777132944731</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.516190729945038</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.36059833925833118</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>32.581352417148423</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>25.266858073763956</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>26.697035368234651</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.526169832176834</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>60.379807795312615</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>22.164334605545605</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>14.318670040786117</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.652617499250255</v>
       </c>
       <c r="T3">
-        <v>18.186315442930777</v>
+        <v>18.186282112930712</v>
       </c>
       <c r="U3">
-        <v>29.03906223617463</v>
+        <v>29.039028906174622</v>
       </c>
       <c r="V3">
-        <v>34.424031864718927</v>
+        <v>34.423998534718919</v>
       </c>
       <c r="W3">
-        <v>18.235675434040957</v>
+        <v>18.235642104040949</v>
       </c>
       <c r="X3">
-        <v>11.008536681531041</v>
+        <v>11.008503351531033</v>
       </c>
       <c r="Y3">
-        <v>13.588769753537974</v>
+        <v>13.588803083537954</v>
       </c>
       <c r="Z3">
-        <v>26.783767149760649</v>
+        <v>26.783800479760657</v>
       </c>
       <c r="AA3">
-        <v>28.238802672905194</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>22.692396176169382</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>31.613299037434075</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>35.549884075008805</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>29.784818258226181</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>29.571258104157664</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>20.365303533603139</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>27.815841092985409</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>28.852641993491659</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>34.391077466304068</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>29.457848758246939</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>34.660294815133284</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>21.488622267225253</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>12.154029439443775</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>11.489966016695007</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>34.359168662104707</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>27.432934262466915</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>36.964613562933835</v>
+        <v>36.964580232933884</v>
       </c>
       <c r="AS3">
         <v>23.259462246252497</v>
       </c>
       <c r="AT3">
-        <v>22.790724509366811</v>
+        <v>22.790691179366803</v>
       </c>
       <c r="AU3">
-        <v>31.04927020316336</v>
+        <v>31.049236873163352</v>
       </c>
       <c r="AV3">
-        <v>24.770217099239403</v>
+        <v>24.770250429239468</v>
       </c>
       <c r="AW3">
-        <v>28.662243142414013</v>
+        <v>28.662209812414005</v>
       </c>
       <c r="AX3">
-        <v>59.491499214218265</v>
+        <v>59.491532544218245</v>
       </c>
       <c r="AY3">
         <v>44.025351439727444</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.183425864230003</v>
+        <v>8.4136337932082483</v>
       </c>
       <c r="C2">
-        <v>25.928756879469802</v>
+        <v>18.795735196116311</v>
       </c>
       <c r="D2">
-        <v>2.1019864475476879</v>
+        <v>23.730625264933053</v>
       </c>
       <c r="E2">
-        <v>33.026736850127463</v>
+        <v>23.821750761293913</v>
       </c>
       <c r="F2">
         <v>-16.582352323971037</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.050106483717173</v>
+        <v>11.526169832176834</v>
       </c>
       <c r="C3">
-        <v>29.723933016622539</v>
+        <v>14.318636710786166</v>
       </c>
       <c r="D3">
-        <v>31.672276963333161</v>
+        <v>12.154062769443755</v>
       </c>
       <c r="E3">
-        <v>36.29427138017914</v>
+        <v>27.355688807826709</v>
       </c>
       <c r="F3">
         <v>3.312630049854846</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.183425864230003</v>
+        <v>-6.38301442675305</v>
       </c>
       <c r="C2">
-        <v>25.928756879469802</v>
+        <v>8.4136337932082483</v>
       </c>
       <c r="D2">
-        <v>2.1019864475476879</v>
+        <v>14.454946235178909</v>
       </c>
       <c r="E2">
-        <v>33.026736850127463</v>
+        <v>23.730625264933053</v>
       </c>
       <c r="F2">
         <v>-16.582352323971037</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.050106483717173</v>
+        <v>-23.802997961765413</v>
       </c>
       <c r="C3">
-        <v>29.723933016622539</v>
+        <v>11.526169832176834</v>
       </c>
       <c r="D3">
-        <v>31.672276963333161</v>
+        <v>34.995288937225325</v>
       </c>
       <c r="E3">
-        <v>36.29427138017914</v>
+        <v>12.154062769443755</v>
       </c>
       <c r="F3">
         <v>3.312630049854846</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>10.183425832421506</v>
+      </c>
+      <c r="C2">
+        <v>25.928756863506294</v>
+      </c>
+      <c r="D2">
+        <v>2.1019864147396845</v>
+      </c>
+      <c r="E2">
+        <v>33.026736817263782</v>
+      </c>
+      <c r="F2">
+        <v>-16.582352343432973</v>
+      </c>
+      <c r="G2">
+        <v>21.744636045027505</v>
+      </c>
+      <c r="H2">
+        <v>21.817522722755996</v>
+      </c>
+      <c r="I2">
+        <v>19.136793400162389</v>
+      </c>
+      <c r="J2">
+        <v>24.901959739026381</v>
+      </c>
+      <c r="K2">
+        <v>37.710553810077158</v>
+      </c>
+      <c r="L2">
+        <v>27.118837592522937</v>
+      </c>
+      <c r="M2">
+        <v>22.201841447457696</v>
+      </c>
+      <c r="N2">
         <v>-6.38301442675305</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>8.4136337932082483</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>17.834756307673899</v>
+      </c>
+      <c r="Q2">
+        <v>67.787905758321926</v>
+      </c>
+      <c r="R2">
+        <v>18.795735196116311</v>
+      </c>
+      <c r="S2">
+        <v>19.694339830860599</v>
+      </c>
+      <c r="T2">
+        <v>36.06565067980182</v>
+      </c>
+      <c r="U2">
+        <v>31.200993127748831</v>
+      </c>
+      <c r="V2">
+        <v>30.444750664542539</v>
+      </c>
+      <c r="W2">
+        <v>3.8495796625803109</v>
+      </c>
+      <c r="X2">
+        <v>30.782707911090881</v>
+      </c>
+      <c r="Y2">
+        <v>29.295497179539694</v>
+      </c>
+      <c r="Z2">
+        <v>26.395987283891799</v>
+      </c>
+      <c r="AA2">
+        <v>25.227734126796861</v>
+      </c>
+      <c r="AB2">
+        <v>-2.2645046258329558</v>
+      </c>
+      <c r="AC2">
+        <v>18.439428707410343</v>
+      </c>
+      <c r="AD2">
+        <v>17.039163317216889</v>
+      </c>
+      <c r="AE2">
+        <v>36.02127883165582</v>
+      </c>
+      <c r="AF2">
+        <v>28.186904791740744</v>
+      </c>
+      <c r="AG2">
+        <v>21.406733336396428</v>
+      </c>
+      <c r="AH2">
+        <v>22.961605223814502</v>
+      </c>
+      <c r="AI2">
+        <v>1.2011196043764016</v>
+      </c>
+      <c r="AJ2">
+        <v>19.169124457450948</v>
+      </c>
+      <c r="AK2">
+        <v>25.051025276305438</v>
+      </c>
+      <c r="AL2">
+        <v>39.749451966922379</v>
+      </c>
+      <c r="AM2">
         <v>14.454946235178909</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>23.730625264933053</v>
       </c>
-      <c r="F2">
-        <v>-16.582352323971037</v>
-      </c>
-      <c r="G2">
-        <v>21.744636066683597</v>
-      </c>
-      <c r="H2">
-        <v>21.817522742713834</v>
-      </c>
-      <c r="I2">
-        <v>19.136793424883649</v>
-      </c>
-      <c r="J2">
-        <v>24.901959756521023</v>
-      </c>
-      <c r="K2">
-        <v>37.710553827838339</v>
-      </c>
-      <c r="L2">
-        <v>27.11883761675017</v>
-      </c>
-      <c r="M2">
-        <v>22.201841492720177</v>
-      </c>
-      <c r="N2">
-        <v>-6.3830143866118192</v>
-      </c>
-      <c r="O2">
-        <v>8.4136338193649749</v>
-      </c>
-      <c r="P2">
-        <v>17.834756351941849</v>
-      </c>
-      <c r="Q2">
-        <v>67.787905791897686</v>
-      </c>
-      <c r="R2">
-        <v>18.795735226146405</v>
-      </c>
-      <c r="S2">
-        <v>19.694339816335173</v>
-      </c>
-      <c r="T2">
-        <v>36.065650730961408</v>
-      </c>
-      <c r="U2">
-        <v>31.200993148053072</v>
-      </c>
-      <c r="V2">
-        <v>30.444750684175119</v>
-      </c>
-      <c r="W2">
-        <v>3.8495796860795508</v>
-      </c>
-      <c r="X2">
-        <v>30.782707952773478</v>
-      </c>
-      <c r="Y2">
-        <v>29.29549721009144</v>
-      </c>
-      <c r="Z2">
-        <v>26.395987306566298</v>
-      </c>
-      <c r="AA2">
-        <v>25.227734157846612</v>
-      </c>
-      <c r="AB2">
-        <v>-2.2645045915566016</v>
-      </c>
-      <c r="AC2">
-        <v>18.439428726994777</v>
-      </c>
-      <c r="AD2">
-        <v>17.039163350029469</v>
-      </c>
-      <c r="AE2">
-        <v>36.021278845786696</v>
-      </c>
-      <c r="AF2">
-        <v>28.186904822863141</v>
-      </c>
-      <c r="AG2">
-        <v>21.406733361454599</v>
-      </c>
-      <c r="AH2">
-        <v>22.961605266888739</v>
-      </c>
-      <c r="AI2">
-        <v>1.2011196365697288</v>
-      </c>
-      <c r="AJ2">
-        <v>19.169124479261086</v>
-      </c>
-      <c r="AK2">
-        <v>25.051025299717423</v>
-      </c>
-      <c r="AL2">
-        <v>39.749451995450841</v>
-      </c>
-      <c r="AM2">
-        <v>14.454946269348397</v>
-      </c>
-      <c r="AN2">
-        <v>23.730625293029789</v>
-      </c>
       <c r="AO2">
-        <v>33.747114639628279</v>
+        <v>33.747114595662055</v>
       </c>
       <c r="AP2">
-        <v>26.167045189762803</v>
+        <v>26.167045157701295</v>
       </c>
       <c r="AQ2">
-        <v>23.821750797127152</v>
+        <v>23.821750761293913</v>
       </c>
       <c r="AR2">
-        <v>30.116224480352457</v>
+        <v>30.116224465593632</v>
       </c>
       <c r="AS2">
-        <v>32.097241781166304</v>
+        <v>32.097241756991934</v>
       </c>
       <c r="AT2">
-        <v>30.389362507082126</v>
+        <v>30.389362473759491</v>
       </c>
       <c r="AU2">
-        <v>24.940061580298845</v>
+        <v>24.940061553945668</v>
       </c>
       <c r="AV2">
-        <v>13.889206093217922</v>
+        <v>13.889206064126256</v>
       </c>
       <c r="AW2">
-        <v>26.628372010290065</v>
+        <v>26.628371981684921</v>
       </c>
       <c r="AX2">
-        <v>31.190021814625538</v>
+        <v>31.190021785536857</v>
       </c>
       <c r="AY2">
-        <v>28.737864059932434</v>
+        <v>28.737864037135608</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.050106458750633</v>
+      </c>
+      <c r="C3">
+        <v>29.723932993984647</v>
+      </c>
+      <c r="D3">
+        <v>31.672276934028559</v>
+      </c>
+      <c r="E3">
+        <v>36.29427129512797</v>
+      </c>
+      <c r="F3">
+        <v>3.3126300319877942</v>
+      </c>
+      <c r="G3">
+        <v>25.892144004519849</v>
+      </c>
+      <c r="H3">
+        <v>22.289526554602901</v>
+      </c>
+      <c r="I3">
+        <v>26.287804659447261</v>
+      </c>
+      <c r="J3">
+        <v>30.759490729945014</v>
+      </c>
+      <c r="K3">
+        <v>-0.36059833925833118</v>
+      </c>
+      <c r="L3">
+        <v>32.581385747148488</v>
+      </c>
+      <c r="M3">
+        <v>25.266858073763956</v>
+      </c>
+      <c r="N3">
         <v>-23.802997961765413</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>11.526169832176834</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>60.379774465312607</v>
+      </c>
+      <c r="Q3">
+        <v>22.164367935545556</v>
+      </c>
+      <c r="R3">
+        <v>14.318636710786166</v>
+      </c>
+      <c r="S3">
+        <v>15.652617499250255</v>
+      </c>
+      <c r="T3">
+        <v>18.186282112930712</v>
+      </c>
+      <c r="U3">
+        <v>29.039028906174622</v>
+      </c>
+      <c r="V3">
+        <v>34.423998534718919</v>
+      </c>
+      <c r="W3">
+        <v>18.24043735037742</v>
+      </c>
+      <c r="X3">
+        <v>11.008503351531033</v>
+      </c>
+      <c r="Y3">
+        <v>13.588803083537954</v>
+      </c>
+      <c r="Z3">
+        <v>26.783800479760657</v>
+      </c>
+      <c r="AA3">
+        <v>28.238769342905186</v>
+      </c>
+      <c r="AB3">
+        <v>20.129096176169355</v>
+      </c>
+      <c r="AC3">
+        <v>31.613332367434083</v>
+      </c>
+      <c r="AD3">
+        <v>35.549884075008805</v>
+      </c>
+      <c r="AE3">
+        <v>29.784784928226202</v>
+      </c>
+      <c r="AF3">
+        <v>29.571224774157656</v>
+      </c>
+      <c r="AG3">
+        <v>20.365303533603139</v>
+      </c>
+      <c r="AH3">
+        <v>27.691990582529797</v>
+      </c>
+      <c r="AI3">
+        <v>30.426008663491587</v>
+      </c>
+      <c r="AJ3">
+        <v>34.391044136304117</v>
+      </c>
+      <c r="AK3">
+        <v>29.45788208824689</v>
+      </c>
+      <c r="AL3">
+        <v>34.660294815133284</v>
+      </c>
+      <c r="AM3">
         <v>34.995288937225325</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>12.154062769443755</v>
       </c>
-      <c r="F3">
-        <v>3.312630049854846</v>
-      </c>
-      <c r="G3">
-        <v>25.892144017184961</v>
-      </c>
-      <c r="H3">
-        <v>22.289526595380948</v>
-      </c>
-      <c r="I3">
-        <v>26.287804682488456</v>
-      </c>
-      <c r="J3">
-        <v>30.759490760327708</v>
-      </c>
-      <c r="K3">
-        <v>-0.36059832042894868</v>
-      </c>
-      <c r="L3">
-        <v>32.581385768202267</v>
-      </c>
-      <c r="M3">
-        <v>25.266600579646934</v>
-      </c>
-      <c r="N3">
-        <v>-23.802997930401602</v>
-      </c>
-      <c r="O3">
-        <v>11.526169861367748</v>
-      </c>
-      <c r="P3">
-        <v>60.379774496967968</v>
-      </c>
-      <c r="Q3">
-        <v>22.164367972557272</v>
-      </c>
-      <c r="R3">
-        <v>14.318636765279393</v>
-      </c>
-      <c r="S3">
-        <v>15.652617522482956</v>
-      </c>
-      <c r="T3">
-        <v>18.186282134093517</v>
-      </c>
-      <c r="U3">
-        <v>29.039028928050982</v>
-      </c>
-      <c r="V3">
-        <v>34.423998557360335</v>
-      </c>
-      <c r="W3">
-        <v>18.240437383662083</v>
-      </c>
-      <c r="X3">
-        <v>11.008503379191154</v>
-      </c>
-      <c r="Y3">
-        <v>13.588803106179085</v>
-      </c>
-      <c r="Z3">
-        <v>26.783800509733851</v>
-      </c>
-      <c r="AA3">
-        <v>28.23876938095151</v>
-      </c>
-      <c r="AB3">
-        <v>20.129096191192161</v>
-      </c>
-      <c r="AC3">
-        <v>31.613332385439236</v>
-      </c>
-      <c r="AD3">
-        <v>35.549884098071402</v>
-      </c>
-      <c r="AE3">
-        <v>29.784784950804806</v>
-      </c>
-      <c r="AF3">
-        <v>29.571224798513981</v>
-      </c>
-      <c r="AG3">
-        <v>20.365303550805152</v>
-      </c>
-      <c r="AH3">
-        <v>27.691990612400332</v>
-      </c>
-      <c r="AI3">
-        <v>30.426008672301577</v>
-      </c>
-      <c r="AJ3">
-        <v>34.39104415242241</v>
-      </c>
-      <c r="AK3">
-        <v>29.457882110693447</v>
-      </c>
-      <c r="AL3">
-        <v>34.660294854333813</v>
-      </c>
-      <c r="AM3">
-        <v>34.995288965794657</v>
-      </c>
-      <c r="AN3">
-        <v>12.154062798635238</v>
-      </c>
       <c r="AO3">
-        <v>11.489966044100356</v>
+        <v>11.489966016695007</v>
       </c>
       <c r="AP3">
-        <v>34.359202018218525</v>
+        <v>34.359201992104659</v>
       </c>
       <c r="AQ3">
-        <v>27.355688852007859</v>
+        <v>27.355688807826709</v>
       </c>
       <c r="AR3">
-        <v>36.964580253917916</v>
+        <v>36.964580232933884</v>
       </c>
       <c r="AS3">
-        <v>23.259462277420539</v>
+        <v>23.259462246252497</v>
       </c>
       <c r="AT3">
-        <v>22.790691210206063</v>
+        <v>22.790691179366803</v>
       </c>
       <c r="AU3">
-        <v>31.04923689101463</v>
+        <v>31.049236873163352</v>
       </c>
       <c r="AV3">
-        <v>24.770250456245776</v>
+        <v>24.770250429239468</v>
       </c>
       <c r="AW3">
-        <v>28.662209835309739</v>
+        <v>28.662209812414005</v>
       </c>
       <c r="AX3">
-        <v>59.491532569224063</v>
+        <v>59.491532544218245</v>
       </c>
       <c r="AY3">
-        <v>44.025351471086196</v>
+        <v>44.025351439727444</v>
       </c>
     </row>
   </sheetData>
